--- a/URS/DbLayouts/L6-共同作業/CdVarValue.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdVarValue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC19BB2C-708C-4B89-BC60-24CCEF282EB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B0AAF4-529C-4B37-867E-1B9E97DC28DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,11 @@
     <sheet name="備份" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="149">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -595,6 +587,18 @@
   <si>
     <t>AvailableFunds</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findYearMonthFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">YearMonth &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1188,21 +1192,21 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="7" max="7" width="27.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1221,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="13" t="s">
@@ -1230,7 +1234,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1247,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
@@ -1254,7 +1258,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1269,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
@@ -1276,7 +1280,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1291,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1440,7 +1444,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1459,7 +1463,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1508,7 +1512,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1517,7 +1521,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1526,7 +1530,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1535,7 +1539,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -1544,7 +1548,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -1553,7 +1557,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -1562,7 +1566,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1571,7 +1575,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1580,7 +1584,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1589,7 +1593,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -1620,18 +1624,18 @@
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -1653,8 +1657,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
     </row>
   </sheetData>
@@ -1672,18 +1686,18 @@
       <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.25" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="7" max="7" width="43.21875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
@@ -1698,7 +1712,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="13" t="s">
@@ -1711,7 +1725,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1738,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1749,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1760,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1771,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1768,7 +1782,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1812,7 +1826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1832,7 +1846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1874,7 +1888,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1893,7 +1907,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1935,7 +1949,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1977,7 +1991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1998,7 +2012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -2019,7 +2033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -2040,7 +2054,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -2061,7 +2075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -2082,7 +2096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -2103,7 +2117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -2124,7 +2138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -2145,7 +2159,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -2166,7 +2180,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -2187,7 +2201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -2208,7 +2222,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -2229,7 +2243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -2248,7 +2262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -2267,7 +2281,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -2286,7 +2300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -2305,7 +2319,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>26</v>
       </c>
@@ -2324,7 +2338,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>27</v>
       </c>
@@ -2343,7 +2357,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>28</v>
       </c>
@@ -2362,7 +2376,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>29</v>
       </c>
@@ -2381,7 +2395,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>30</v>
       </c>
@@ -2400,7 +2414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>31</v>
       </c>
@@ -2419,7 +2433,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>32</v>
       </c>
@@ -2438,7 +2452,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>33</v>
       </c>
@@ -2457,7 +2471,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="19">
         <v>34</v>
       </c>
@@ -2476,7 +2490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="19">
         <v>35</v>
       </c>
@@ -2495,7 +2509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="19">
         <v>36</v>
       </c>
@@ -2514,7 +2528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>37</v>
       </c>
@@ -2533,7 +2547,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="19">
         <v>38</v>
       </c>
@@ -2552,7 +2566,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <v>39</v>
       </c>
@@ -2575,7 +2589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="19">
         <v>40</v>
       </c>
@@ -2598,7 +2612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -2607,7 +2621,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -2616,7 +2630,7 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -2625,7 +2639,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -2634,7 +2648,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2643,7 +2657,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2652,7 +2666,7 @@
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -2661,7 +2675,7 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -2670,7 +2684,7 @@
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -2679,7 +2693,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -2688,7 +2702,7 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
